--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Desktop\Relatorio_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Desktop\Relatorio_Peca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1690FE12-F64A-4625-926E-A5CD7BC7D012}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8DA870-D95B-42A1-8201-BC82D3B6E69B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
